--- a/biology/Zoologie/Abba_transversa/Abba_transversa.xlsx
+++ b/biology/Zoologie/Abba_transversa/Abba_transversa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Abba transversa, unique représentant du genre Abba, est une espèce d'araignées aranéomorphes de la famille des Araneidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Abba transversa, unique représentant du genre Abba, est une espèce d'araignées aranéomorphes de la famille des Araneidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Australie[1]. Elle se rencontre au Queensland et en Nouvelle-Galles du Sud[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Australie. Elle se rencontre au Queensland et en Nouvelle-Galles du Sud.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle syntype mesure 1 mm de long sur 0,8 mm et l'abdomen 1 mm de long sur 0,9 mm[3]. La femelle syntype appartient à Gea theridioides[2].
-Le mâle décrit par Castanheira et Framenau en 2023 mesure 3,1 mm et la femelle 4,2 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle syntype mesure 1 mm de long sur 0,8 mm et l'abdomen 1 mm de long sur 0,9 mm. La femelle syntype appartient à Gea theridioides.
+Le mâle décrit par Castanheira et Framenau en 2023 mesure 3,1 mm et la femelle 4,2 mm.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Araneus transversus par Rainbow en 1912. Elle est placée dans le genre Abba par Castanheira et Framenau en 2023[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Araneus transversus par Rainbow en 1912. Elle est placée dans le genre Abba par Castanheira et Framenau en 2023.
 Ce genre a été décrit par Castanheira et Framenau en 2023 dans les Araneidae.
 </t>
         </is>
@@ -606,7 +624,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Rainbow, 1912 : « Araneidae from the Blackall Ranges. » Memoirs of the Queensland Museum, vol. 1, p. 190-202.
 Castanheira &amp; Framenau, 2023 : « Abba, a new monotypic genus of orb-weaving spiders (Araneae, Araneidae) from Australia. » Australian Journal of Taxonomy, vol. 7, no 1, p. 73-81.</t>
